--- a/biology/Botanique/Mutin_(champignon)/Mutin_(champignon).xlsx
+++ b/biology/Botanique/Mutin_(champignon)/Mutin_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">(cet article est une débauche concernant un confinement)
 Mutinus
-Mutinus est un genre de champignons basidiomycètes de la famille des Phallaceae dans l'ordre des Phallales, qui regroupe une dizaine d'espèces d'aspect phallique, souvent malodorante décrit pour la première fois par Elias Magnus Fries en 1849[1].  Sans véritable chapeau, la « tête » fertile est en continuité avec le stipe. Autrement dit, la gléba recouvre une plus ou moins grande partie du sommet de la tige[2]. 
+Mutinus est un genre de champignons basidiomycètes de la famille des Phallaceae dans l'ordre des Phallales, qui regroupe une dizaine d'espèces d'aspect phallique, souvent malodorante décrit pour la première fois par Elias Magnus Fries en 1849.  Sans véritable chapeau, la « tête » fertile est en continuité avec le stipe. Autrement dit, la gléba recouvre une plus ou moins grande partie du sommet de la tige. 
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Nomenclature et historique du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première description binominale de l'espèce type du genre Mutinus est due au botaniste britannique William Hudson en 1778, sous le basionyme de Phallus caninus Huds., Flora anglica, Edn 2 2: 630[3]. Il est sanctionné par Persoon Cynophallus caninus (Huds.) Fr., Outlines of British Fungology: 298 (1860)
-Le nom Mutinus a fait l'objet d'une mesure de conservation : Nom. cons., Art. 14[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description binominale de l'espèce type du genre Mutinus est due au botaniste britannique William Hudson en 1778, sous le basionyme de Phallus caninus Huds., Flora anglica, Edn 2 2: 630. Il est sanctionné par Persoon Cynophallus caninus (Huds.) Fr., Outlines of British Fungology: 298 (1860)
+Le nom Mutinus a fait l'objet d'une mesure de conservation : Nom. cons., Art. 14.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Systématique confuse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les récoltes européennes du genre Mutinus ont été souvent confondues à cause de caractères morphologiques contradictoires, notamment M. ravenelii et M. caninus, parfois même mettant en doute l'existence de ce dernier comme bonne espèce. De même, M. ravenelii a parfois été pris par erreur pour une forme à stipe rose de M. elegans (Phillips 1991[5]). 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récoltes européennes du genre Mutinus ont été souvent confondues à cause de caractères morphologiques contradictoires, notamment M. ravenelii et M. caninus, parfois même mettant en doute l'existence de ce dernier comme bonne espèce. De même, M. ravenelii a parfois été pris par erreur pour une forme à stipe rose de M. elegans (Phillips 1991). 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Noms savants et vernaculaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les noms de genre Mutinus et Ityphallus sont tirés du nom latin de la divinité romaine Mutinus, correspondant à Priape dans la mythologie Grecque, caractérisée par un phallus (pénis symbolique) en érection constante[6]. On appelle Ithyphalle une amulette phallique, portée autour du cou chez les Romains, à fonction apotropaïque, contre le mauvais œil. De même que les phallus, parfois ailés ou munis de clochettes (tintinnabulum), que les Romains suspendaient à l'entrée des maisons, dont on peut voir des exemples au Musée archéologique national de Naples.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les noms de genre Mutinus et Ityphallus sont tirés du nom latin de la divinité romaine Mutinus, correspondant à Priape dans la mythologie Grecque, caractérisée par un phallus (pénis symbolique) en érection constante. On appelle Ithyphalle une amulette phallique, portée autour du cou chez les Romains, à fonction apotropaïque, contre le mauvais œil. De même que les phallus, parfois ailés ou munis de clochettes (tintinnabulum), que les Romains suspendaient à l'entrée des maisons, dont on peut voir des exemples au Musée archéologique national de Naples.
 Mutinus elegans, sur un plan littéraire, « rebelle, mutin », en raison de la force suggestive de son érection, qui attente à la pudeur, et elegans, sans doute en raison de ses belles couleurs .
 Anglais : Elegant stinkhorn, Dog stinkhorn, Devil's dipstick.
 Japonais : タヌキノベニエフデ, 狸紅絵筆 (prononcé « Tanuki-no-béni-éfudé » signifie « Pinceau rouge de blaireau ») .
@@ -610,12 +628,14 @@
           <t>Classification "morphologique"</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement aux Phallus, les espèces du genre Mutinus n'ont pas de chapeau distinct et la gléba recouvre plus ou moins la partie supérieure du réceptacle (stipe) [7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux Phallus, les espèces du genre Mutinus n'ont pas de chapeau distinct et la gléba recouvre plus ou moins la partie supérieure du réceptacle (stipe) ,.
 Mutinus caninus est assez commun en Europe. Satyre du chien. Pas de chapeau mais capité par une "tête" orangé (sous la gléba) délimitée par un léger renflement, avec dépression.
 Mutinus elegans
-Mutinus ravenelii[9]
+Mutinus ravenelii
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mutinus albotruncatus
